--- a/biology/Biologie cellulaire et moléculaire/Iduronidase/Iduronidase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Iduronidase/Iduronidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'iduronidase est une enzyme de nature peptidique qui catalyse la réaction d'hydrolyse de l'acide iduronique dans les molécules de dermatane sulfate ou d'héparane sulfate pour la dégradation des glycosaminoglycanes.
 Le gène codant l'iduronidase se trouve sur le chromosome 4 humain.
@@ -512,7 +524,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gène codant l'iduronidase (4p16.3) peut être touchée par une mutation qui donnera le syndrome de Hurler (ou gargoylisme). 
 Cela donnera des défauts au niveau de la peau et des articulations en particulier, donnant l'aspect de « gargouille » aux personnes touchées (à l'origine du nom de gargoylisme).
